--- a/data/trans_orig/Q5406-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3576</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10977</v>
+        <v>10893</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0122205240999617</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002915506687270138</v>
+        <v>0.002868284526472791</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03751727089785876</v>
+        <v>0.03723055848005485</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -768,16 +768,16 @@
         <v>895</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8545</v>
+        <v>8629</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008348877042218549</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002610467935255252</v>
+        <v>0.002609955716321087</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02491772698407654</v>
+        <v>0.02516178618981303</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -786,19 +786,19 @@
         <v>6439</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2089</v>
+        <v>2736</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12903</v>
+        <v>13364</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01013132835871587</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003287853988122559</v>
+        <v>0.004305869765655887</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02030377966826654</v>
+        <v>0.02102873837544374</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>7287</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3207</v>
+        <v>3464</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13665</v>
+        <v>13954</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02490501347810183</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01096100679174787</v>
+        <v>0.01184087456240139</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04670631053341113</v>
+        <v>0.04769108151456877</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -836,19 +836,19 @@
         <v>4594</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1754</v>
+        <v>1767</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10270</v>
+        <v>10448</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01339498311922926</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005113557584010329</v>
+        <v>0.005153085564681937</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02994720259293041</v>
+        <v>0.03046689083642336</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -857,19 +857,19 @@
         <v>11880</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6702</v>
+        <v>6558</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19742</v>
+        <v>20703</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01869403761983648</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01054538974075044</v>
+        <v>0.01031939639007105</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03106422647031319</v>
+        <v>0.03257608769534396</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>281721</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>273174</v>
+        <v>274192</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>287037</v>
+        <v>286840</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9628744624219365</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9336634791962173</v>
+        <v>0.9371422579240467</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9810456234842503</v>
+        <v>0.9803707906789241</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>363</v>
@@ -907,19 +907,19 @@
         <v>335477</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>328399</v>
+        <v>328383</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>339405</v>
+        <v>339311</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9782561398385522</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9576153069207058</v>
+        <v>0.9575704130120533</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9897084714760191</v>
+        <v>0.9894354705772147</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>655</v>
@@ -928,19 +928,19 @@
         <v>617198</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>607969</v>
+        <v>607693</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>623805</v>
+        <v>623767</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9711746340214477</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9566526868540502</v>
+        <v>0.956219096770481</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9815716891888981</v>
+        <v>0.9815118043079781</v>
       </c>
     </row>
     <row r="7">
@@ -1045,19 +1045,19 @@
         <v>13084</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7251</v>
+        <v>6906</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22374</v>
+        <v>23079</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03918419954669335</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02171503828336316</v>
+        <v>0.02068302354342515</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06700782307280934</v>
+        <v>0.06911681222992684</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -1066,19 +1066,19 @@
         <v>13084</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6395</v>
+        <v>6700</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>23300</v>
+        <v>22407</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02406056264774319</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01176036987149882</v>
+        <v>0.0123217657580926</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04284724420715532</v>
+        <v>0.04120434473488749</v>
       </c>
     </row>
     <row r="9">
@@ -1095,19 +1095,19 @@
         <v>20903</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13110</v>
+        <v>13564</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30666</v>
+        <v>30765</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09959469062716245</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06246189959293391</v>
+        <v>0.06462776198818711</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1461107604595233</v>
+        <v>0.1465838575815047</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -1116,19 +1116,19 @@
         <v>22449</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13889</v>
+        <v>14154</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>33086</v>
+        <v>33614</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06723228281843992</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04159576583982062</v>
+        <v>0.04239028762918334</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09908571087351209</v>
+        <v>0.1006680118869456</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>42</v>
@@ -1137,19 +1137,19 @@
         <v>43353</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>32367</v>
+        <v>33021</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>57907</v>
+        <v>58758</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07972296300425402</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05952105248553356</v>
+        <v>0.06072330660865593</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1064876538641976</v>
+        <v>0.108053299412341</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>188980</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>179217</v>
+        <v>179118</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>196773</v>
+        <v>196319</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9004053093728376</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8538892395404767</v>
+        <v>0.8534161424184953</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9375381004070661</v>
+        <v>0.9353722380118129</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>259</v>
@@ -1187,19 +1187,19 @@
         <v>298375</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>286103</v>
+        <v>283612</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>308746</v>
+        <v>308530</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8935835176348668</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8568327379880936</v>
+        <v>0.8493727356023055</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9246450810771566</v>
+        <v>0.9239956992530567</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>456</v>
@@ -1208,19 +1208,19 @@
         <v>487354</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>471973</v>
+        <v>471616</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>501244</v>
+        <v>499853</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8962164743480028</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8679317408549491</v>
+        <v>0.8672739345324856</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9217585300227118</v>
+        <v>0.9192011133850038</v>
       </c>
     </row>
     <row r="11">
@@ -1312,19 +1312,19 @@
         <v>3576</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10515</v>
+        <v>10348</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007115938794852052</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001672548068622642</v>
+        <v>0.001699097427346487</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02092766777586608</v>
+        <v>0.02059363973757332</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -1333,19 +1333,19 @@
         <v>15947</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9253</v>
+        <v>8915</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25432</v>
+        <v>25339</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02356093782705999</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01367027470410609</v>
+        <v>0.01317119300147788</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03757522222768977</v>
+        <v>0.0374369088795868</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -1354,19 +1354,19 @@
         <v>19523</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11724</v>
+        <v>12169</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>29659</v>
+        <v>32140</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01655424156978161</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009941506078180212</v>
+        <v>0.01031846404741399</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02514907084578763</v>
+        <v>0.02725322071659373</v>
       </c>
     </row>
     <row r="13">
@@ -1383,19 +1383,19 @@
         <v>28190</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20189</v>
+        <v>20458</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38812</v>
+        <v>39847</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0561033340492853</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0401794069442078</v>
+        <v>0.04071554252230635</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07724377689418244</v>
+        <v>0.07930196821584165</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -1404,19 +1404,19 @@
         <v>27043</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18135</v>
+        <v>18609</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39317</v>
+        <v>39299</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03995466237658968</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02679323227797281</v>
+        <v>0.02749315154752066</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05808946410527547</v>
+        <v>0.05806207022899591</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -1425,19 +1425,19 @@
         <v>55233</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41223</v>
+        <v>42359</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>71016</v>
+        <v>70845</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04683510287691984</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03495559452099491</v>
+        <v>0.03591868685787242</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0602180658163561</v>
+        <v>0.06007314849879552</v>
       </c>
     </row>
     <row r="14">
@@ -1454,19 +1454,19 @@
         <v>470700</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>458656</v>
+        <v>457728</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>479617</v>
+        <v>479103</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9367807271558627</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9128107819964044</v>
+        <v>0.9109640188758218</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9545263464192891</v>
+        <v>0.953502351776669</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>622</v>
@@ -1475,19 +1475,19 @@
         <v>633852</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>618507</v>
+        <v>617242</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>645376</v>
+        <v>645162</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9364843997963503</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9138128138687223</v>
+        <v>0.9119447086292392</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9535098999452636</v>
+        <v>0.9531949834858701</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1111</v>
@@ -1496,19 +1496,19 @@
         <v>1104552</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1086092</v>
+        <v>1087961</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1120524</v>
+        <v>1119725</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9366106555532986</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9209569670605064</v>
+        <v>0.9225414906257572</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9501540020787702</v>
+        <v>0.9494763924241172</v>
       </c>
     </row>
     <row r="15">
@@ -1838,19 +1838,19 @@
         <v>3945</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9830</v>
+        <v>9876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01273318138762164</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003178624856964684</v>
+        <v>0.003210087801981959</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03173054357949919</v>
+        <v>0.03188048090784264</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -1859,19 +1859,19 @@
         <v>3877</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>993</v>
+        <v>955</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8847</v>
+        <v>9405</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01095172698532395</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002804321848835376</v>
+        <v>0.002697229395937823</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02499188626383369</v>
+        <v>0.02656886577662299</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -1880,19 +1880,19 @@
         <v>7821</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2974</v>
+        <v>3836</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14421</v>
+        <v>15799</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01178312917259056</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004480850855573731</v>
+        <v>0.005779520047671122</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02172500258005949</v>
+        <v>0.02380214515889893</v>
       </c>
     </row>
     <row r="5">
@@ -1909,19 +1909,19 @@
         <v>12663</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6301</v>
+        <v>6316</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23402</v>
+        <v>23974</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04087506682477768</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02034043456861373</v>
+        <v>0.02038870727051122</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07554146266149216</v>
+        <v>0.0773881250984028</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -1930,19 +1930,19 @@
         <v>9858</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4982</v>
+        <v>4863</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16865</v>
+        <v>17349</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02784862164321468</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01407295832572805</v>
+        <v>0.01373686742967082</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0476418639210088</v>
+        <v>0.04900901477190237</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -1951,19 +1951,19 @@
         <v>22521</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13323</v>
+        <v>14160</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>34735</v>
+        <v>34865</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03392804472712378</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02007071658554111</v>
+        <v>0.02133221187931039</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05232856478965587</v>
+        <v>0.05252449168418404</v>
       </c>
     </row>
     <row r="6">
@@ -1980,19 +1980,19 @@
         <v>293179</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>282277</v>
+        <v>281916</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>300631</v>
+        <v>300460</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9463917517876007</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9112005751355563</v>
+        <v>0.9100334244162747</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9704481526724175</v>
+        <v>0.9698964287133053</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>330</v>
@@ -2001,19 +2001,19 @@
         <v>340261</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>332369</v>
+        <v>331437</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>346306</v>
+        <v>346206</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9611996513714613</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9389068598824792</v>
+        <v>0.9362740527649929</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9782757334573632</v>
+        <v>0.977995211738098</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>598</v>
@@ -2022,19 +2022,19 @@
         <v>633440</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>621374</v>
+        <v>619422</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>644110</v>
+        <v>642938</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9542888261002856</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9361115638003094</v>
+        <v>0.9331715521588396</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9703640858543265</v>
+        <v>0.9685974783308525</v>
       </c>
     </row>
     <row r="7">
@@ -2126,19 +2126,19 @@
         <v>12894</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6360</v>
+        <v>6828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22749</v>
+        <v>23116</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05160713831045025</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02545700166947263</v>
+        <v>0.02732906451470783</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09104884855431659</v>
+        <v>0.09251930561584411</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>25</v>
@@ -2147,19 +2147,19 @@
         <v>28500</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18606</v>
+        <v>19472</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>40126</v>
+        <v>41415</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07326940954221679</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04783399402966045</v>
+        <v>0.05005988278292124</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1031583911421051</v>
+        <v>0.106471912927983</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>36</v>
@@ -2168,19 +2168,19 @@
         <v>41394</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30138</v>
+        <v>28728</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>57522</v>
+        <v>56514</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06479714271620376</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04717673861524861</v>
+        <v>0.04496915128271397</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09004299489144581</v>
+        <v>0.08846542700881935</v>
       </c>
     </row>
     <row r="9">
@@ -2197,19 +2197,19 @@
         <v>24496</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15096</v>
+        <v>15599</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>36900</v>
+        <v>36932</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09804358012551967</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06042085721592944</v>
+        <v>0.0624346978524922</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1476899657843727</v>
+        <v>0.147816832541479</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>37</v>
@@ -2218,19 +2218,19 @@
         <v>41229</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>28696</v>
+        <v>28911</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>53347</v>
+        <v>54300</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1059930405919874</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07377277177591332</v>
+        <v>0.07432610228777888</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1371459084881407</v>
+        <v>0.1395963744310196</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>58</v>
@@ -2239,19 +2239,19 @@
         <v>65725</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>49514</v>
+        <v>51004</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>83481</v>
+        <v>82993</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1028839506228806</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07750681438242192</v>
+        <v>0.0798396973593528</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.130678557713764</v>
+        <v>0.1299143093026238</v>
       </c>
     </row>
     <row r="10">
@@ -2268,19 +2268,19 @@
         <v>212461</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>198270</v>
+        <v>199928</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>223953</v>
+        <v>224590</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8503492815640301</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7935529237379951</v>
+        <v>0.8001869321327376</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8963466516149216</v>
+        <v>0.8988962166877933</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>288</v>
@@ -2289,19 +2289,19 @@
         <v>319250</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>302441</v>
+        <v>301824</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>334458</v>
+        <v>334229</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8207375498657958</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7775257816763647</v>
+        <v>0.7759378638903863</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8598345076791349</v>
+        <v>0.859248126009505</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>478</v>
@@ -2310,19 +2310,19 @@
         <v>531710</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>509495</v>
+        <v>509109</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>552250</v>
+        <v>550358</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8323189066609157</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7975437725649956</v>
+        <v>0.7969403942759367</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8644711130448119</v>
+        <v>0.8615088484515472</v>
       </c>
     </row>
     <row r="11">
@@ -2414,19 +2414,19 @@
         <v>16839</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10318</v>
+        <v>9982</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28768</v>
+        <v>28577</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03008852188310793</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01843682097584751</v>
+        <v>0.01783689581927441</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0514048807776218</v>
+        <v>0.05106426260157142</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -2435,19 +2435,19 @@
         <v>32377</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21712</v>
+        <v>23043</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>45824</v>
+        <v>45013</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04357768312548357</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02922287547570205</v>
+        <v>0.0310147081055527</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0616768328174659</v>
+        <v>0.0605844147861543</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>44</v>
@@ -2456,19 +2456,19 @@
         <v>49216</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>36400</v>
+        <v>36879</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>65355</v>
+        <v>66123</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.037782377985343</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02794409631425211</v>
+        <v>0.02831176101754642</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05017258488872389</v>
+        <v>0.05076214936859962</v>
       </c>
     </row>
     <row r="13">
@@ -2485,19 +2485,19 @@
         <v>37159</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25479</v>
+        <v>25458</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52803</v>
+        <v>53171</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0663980413942242</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04552825736442501</v>
+        <v>0.04549022809065446</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09435240129601363</v>
+        <v>0.09501068454393155</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -2506,19 +2506,19 @@
         <v>51087</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38937</v>
+        <v>36850</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67073</v>
+        <v>67063</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06876054712910422</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05240655693638276</v>
+        <v>0.04959744354899958</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0902758258425497</v>
+        <v>0.09026329430920445</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -2527,19 +2527,19 @@
         <v>88246</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>70040</v>
+        <v>70478</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>108099</v>
+        <v>106655</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06774555135709501</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05376919942716892</v>
+        <v>0.05410487814552413</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08298603563856241</v>
+        <v>0.0818779806716598</v>
       </c>
     </row>
     <row r="14">
@@ -2556,19 +2556,19 @@
         <v>505640</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>487773</v>
+        <v>487365</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>519302</v>
+        <v>519776</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9035134367226678</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8715881168514787</v>
+        <v>0.8708596634090122</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9279264542289305</v>
+        <v>0.9287743438234454</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>618</v>
@@ -2577,19 +2577,19 @@
         <v>659511</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>639492</v>
+        <v>640420</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>676385</v>
+        <v>676420</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8876617697454122</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8607184252732117</v>
+        <v>0.8619668703187094</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9103738134257569</v>
+        <v>0.9104203793148047</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1076</v>
@@ -2598,19 +2598,19 @@
         <v>1165150</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1138423</v>
+        <v>1143677</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1187000</v>
+        <v>1188050</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.894472070657562</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8739537377143707</v>
+        <v>0.8779871212208058</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9112458313969892</v>
+        <v>0.9120517692450885</v>
       </c>
     </row>
     <row r="15">
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4786</v>
+        <v>5721</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002846574866965476</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01431483024052472</v>
+        <v>0.01711205240735581</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6109</v>
+        <v>6297</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002746431425896789</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01617253754917486</v>
+        <v>0.01666921296399775</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6772</v>
+        <v>6954</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002793449165850969</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009509516952302057</v>
+        <v>0.00976594123912505</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3011,19 @@
         <v>3019</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8006</v>
+        <v>8263</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009029186282263809</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002891132081372538</v>
+        <v>0.002885889960851613</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02394569232588871</v>
+        <v>0.02471605182814287</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -3032,19 +3032,19 @@
         <v>4879</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1883</v>
+        <v>1918</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10804</v>
+        <v>11100</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01291459832546952</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004984123734682462</v>
+        <v>0.005077962730159705</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02860064246769898</v>
+        <v>0.0293846886929308</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -3053,19 +3053,19 @@
         <v>7897</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3826</v>
+        <v>3877</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14940</v>
+        <v>15008</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01109038207013849</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005372476423243898</v>
+        <v>0.005443925202947662</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02097979262183542</v>
+        <v>0.02107597137681134</v>
       </c>
     </row>
     <row r="6">
@@ -3082,19 +3082,19 @@
         <v>330360</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>324530</v>
+        <v>324315</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>333291</v>
+        <v>333353</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9881242388507707</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9706887842893436</v>
+        <v>0.970043811076938</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9968911843999964</v>
+        <v>0.9970782386546337</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>348</v>
@@ -3103,19 +3103,19 @@
         <v>371846</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>365858</v>
+        <v>365531</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>375747</v>
+        <v>374945</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9843389702486337</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9684875691210703</v>
+        <v>0.9676222833835512</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9946668025691312</v>
+        <v>0.9925425978533514</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>669</v>
@@ -3124,19 +3124,19 @@
         <v>702205</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>694201</v>
+        <v>695094</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>707166</v>
+        <v>707072</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9861161687640105</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9748755495917051</v>
+        <v>0.9761298130699336</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9930827263644045</v>
+        <v>0.9929500833047172</v>
       </c>
     </row>
     <row r="7">
@@ -3228,19 +3228,19 @@
         <v>5662</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2379</v>
+        <v>2422</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10433</v>
+        <v>11308</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02202993670058623</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009255098761057193</v>
+        <v>0.009424330290822689</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04059690537715826</v>
+        <v>0.04400081570149342</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -3249,19 +3249,19 @@
         <v>12847</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6146</v>
+        <v>5853</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24329</v>
+        <v>23098</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03210364010337323</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01535757225799709</v>
+        <v>0.01462688075807998</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06079724101106581</v>
+        <v>0.05771998817154869</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -3270,19 +3270,19 @@
         <v>18509</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10586</v>
+        <v>10831</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>29184</v>
+        <v>29946</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02816412147890578</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01610803156595915</v>
+        <v>0.01648177608062629</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04440849445014432</v>
+        <v>0.04556853716352858</v>
       </c>
     </row>
     <row r="9">
@@ -3299,19 +3299,19 @@
         <v>15182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9625</v>
+        <v>9367</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23903</v>
+        <v>23746</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05907521685507768</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03745068366093331</v>
+        <v>0.03644850725107645</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09300662702015806</v>
+        <v>0.09239619493179475</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>26</v>
@@ -3320,19 +3320,19 @@
         <v>35668</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22820</v>
+        <v>24597</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>49188</v>
+        <v>52400</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08913234469649003</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05702617591724907</v>
+        <v>0.06146558530103345</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1229170482562831</v>
+        <v>0.1309436390793605</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>43</v>
@@ -3341,19 +3341,19 @@
         <v>50850</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>36724</v>
+        <v>37109</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>67659</v>
+        <v>68278</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07737791733301579</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0558828032563943</v>
+        <v>0.05646860924539549</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1029552455755175</v>
+        <v>0.1038969545974995</v>
       </c>
     </row>
     <row r="10">
@@ -3370,19 +3370,19 @@
         <v>236154</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>226861</v>
+        <v>226732</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>242707</v>
+        <v>243574</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9188948464443361</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8827359345816155</v>
+        <v>0.8822314978403931</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9443922599394771</v>
+        <v>0.9477651602013226</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>266</v>
@@ -3391,19 +3391,19 @@
         <v>351654</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>334882</v>
+        <v>333347</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>365257</v>
+        <v>365673</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8787640152001367</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8368502211774344</v>
+        <v>0.8330164021920028</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9127562888184636</v>
+        <v>0.9137965323186334</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>544</v>
@@ -3412,19 +3412,19 @@
         <v>587808</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>567618</v>
+        <v>568969</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>603098</v>
+        <v>604030</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8944579611880784</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8637340977905572</v>
+        <v>0.8657902024721779</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9177239160100273</v>
+        <v>0.9191416636711304</v>
       </c>
     </row>
     <row r="11">
@@ -3516,19 +3516,19 @@
         <v>6613</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3234</v>
+        <v>3203</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12021</v>
+        <v>13040</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01118388622846911</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005468254944742038</v>
+        <v>0.005416284807121394</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02032863556362116</v>
+        <v>0.02205160298744004</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -3537,19 +3537,19 @@
         <v>13884</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6955</v>
+        <v>7280</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>24693</v>
+        <v>26013</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01784782834895922</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.008940272718634564</v>
+        <v>0.009358517798786789</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03174221929106872</v>
+        <v>0.03343917953314642</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -3558,19 +3558,19 @@
         <v>20498</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12220</v>
+        <v>12249</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31778</v>
+        <v>31752</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01496993924234497</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008924415314121451</v>
+        <v>0.008945577389983278</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02320836304108831</v>
+        <v>0.02318918573691664</v>
       </c>
     </row>
     <row r="13">
@@ -3587,19 +3587,19 @@
         <v>18201</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11266</v>
+        <v>10929</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26265</v>
+        <v>26479</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03077977113343459</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01905200172118266</v>
+        <v>0.01848157409535177</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04441772988693886</v>
+        <v>0.04477834645811667</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -3608,19 +3608,19 @@
         <v>40547</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27400</v>
+        <v>26966</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56051</v>
+        <v>56478</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05212113370065159</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03522180008001114</v>
+        <v>0.03466397537730376</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07205129900428232</v>
+        <v>0.07259975392921073</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -3629,19 +3629,19 @@
         <v>58748</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42940</v>
+        <v>43730</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76834</v>
+        <v>76591</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04290465586485943</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03136030690703977</v>
+        <v>0.03193662683432031</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05611356907811602</v>
+        <v>0.05593591759644628</v>
       </c>
     </row>
     <row r="14">
@@ -3658,19 +3658,19 @@
         <v>566514</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>557096</v>
+        <v>555653</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>574492</v>
+        <v>574168</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9580363426380963</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9421091712667508</v>
+        <v>0.9396695154235284</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9715290721533963</v>
+        <v>0.9709800627794227</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>614</v>
@@ -3679,19 +3679,19 @@
         <v>723500</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>706029</v>
+        <v>704444</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>739037</v>
+        <v>737223</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9300310379503892</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9075723961090284</v>
+        <v>0.9055350982070829</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9500028249116796</v>
+        <v>0.9476716181397319</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1213</v>
@@ -3700,19 +3700,19 @@
         <v>1290014</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1269536</v>
+        <v>1269943</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1306719</v>
+        <v>1307436</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9421254048927956</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.927170303085781</v>
+        <v>0.927467557816513</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.95432590658793</v>
+        <v>0.9548495474674948</v>
       </c>
     </row>
     <row r="15">
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3333</v>
+        <v>3066</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001500647057853967</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008201401959906516</v>
+        <v>0.007544888633359893</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4063,19 +4063,19 @@
         <v>1790</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5221</v>
+        <v>5111</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004088876705914744</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00104220181346912</v>
+        <v>0.001040183686640539</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01192218133161878</v>
+        <v>0.01167220764852998</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4084,19 +4084,19 @@
         <v>2400</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5931</v>
+        <v>6044</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.002843008486167905</v>
+        <v>0.002843008486167906</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0007703436168080755</v>
+        <v>0.0007753130178316501</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007024473265590978</v>
+        <v>0.007158817270140037</v>
       </c>
     </row>
     <row r="5">
@@ -4113,19 +4113,19 @@
         <v>4272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1452</v>
+        <v>1883</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8581</v>
+        <v>9926</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01051232533808367</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003572082145347095</v>
+        <v>0.004632826006241883</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0211141832666685</v>
+        <v>0.02442409473780061</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -4134,19 +4134,19 @@
         <v>7363</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3489</v>
+        <v>4263</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12094</v>
+        <v>12456</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.01681370390264067</v>
+        <v>0.01681370390264066</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00796848205915732</v>
+        <v>0.009735861578070354</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02761936350626418</v>
+        <v>0.02844525644616793</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -4155,19 +4155,19 @@
         <v>11635</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7133</v>
+        <v>7269</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18020</v>
+        <v>18139</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.01378047719493425</v>
+        <v>0.01378047719493426</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008447970840759303</v>
+        <v>0.008609979688619757</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02134266118423812</v>
+        <v>0.02148437311228888</v>
       </c>
     </row>
     <row r="6">
@@ -4184,19 +4184,19 @@
         <v>401530</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>396954</v>
+        <v>396483</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>404498</v>
+        <v>404465</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9879870276040624</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9767283994915446</v>
+        <v>0.9755686093398712</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9952896551641859</v>
+        <v>0.995209708737169</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>808</v>
@@ -4205,19 +4205,19 @@
         <v>428736</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>423444</v>
+        <v>422953</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>433017</v>
+        <v>432256</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9790974193914447</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9670125681196212</v>
+        <v>0.9658910667038475</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9888744099016071</v>
+        <v>0.9871365170994451</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1370</v>
@@ -4226,19 +4226,19 @@
         <v>830266</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>823223</v>
+        <v>823502</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>835249</v>
+        <v>835342</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9833765143188978</v>
+        <v>0.9833765143188979</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9750350252882238</v>
+        <v>0.9753656056533948</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9892784863207513</v>
+        <v>0.9893891863906364</v>
       </c>
     </row>
     <row r="7">
@@ -4330,19 +4330,19 @@
         <v>5840</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2719</v>
+        <v>2989</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10466</v>
+        <v>10736</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0188817806428608</v>
+        <v>0.01888178064286079</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008789903846793359</v>
+        <v>0.009664834961385597</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03383504557676138</v>
+        <v>0.03470783293178823</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -4351,19 +4351,19 @@
         <v>24686</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17532</v>
+        <v>18387</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>32784</v>
+        <v>33086</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05320718516488439</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03778778662074014</v>
+        <v>0.03963010421954009</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07066127227471128</v>
+        <v>0.07131064875987048</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>56</v>
@@ -4372,19 +4372,19 @@
         <v>30527</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23128</v>
+        <v>23071</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>40697</v>
+        <v>40178</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.03947695156131185</v>
+        <v>0.03947695156131186</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02990956038084876</v>
+        <v>0.02983571714245957</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05262963902461002</v>
+        <v>0.05195817955208226</v>
       </c>
     </row>
     <row r="9">
@@ -4401,19 +4401,19 @@
         <v>19432</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13442</v>
+        <v>13221</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27572</v>
+        <v>27910</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06282484196997325</v>
+        <v>0.06282484196997323</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04345794628631161</v>
+        <v>0.04274207333905356</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08913836967003926</v>
+        <v>0.09023183451227444</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>96</v>
@@ -4422,19 +4422,19 @@
         <v>48043</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>39133</v>
+        <v>39123</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>58485</v>
+        <v>58058</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1035496808367311</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08434547170277119</v>
+        <v>0.08432424552252919</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1260552921968891</v>
+        <v>0.1251342202854326</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>127</v>
@@ -4443,19 +4443,19 @@
         <v>67476</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>56352</v>
+        <v>55856</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>80085</v>
+        <v>79647</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.08725966011025513</v>
+        <v>0.08725966011025516</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07287440572499512</v>
+        <v>0.07223353733258531</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1035666178931167</v>
+        <v>0.1030001196930699</v>
       </c>
     </row>
     <row r="10">
@@ -4472,19 +4472,19 @@
         <v>284039</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>274582</v>
+        <v>275016</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>290850</v>
+        <v>290883</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.918293377387166</v>
+        <v>0.9182933773871659</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8877200327670252</v>
+        <v>0.8891215057120883</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9403134878944128</v>
+        <v>0.9404191569879391</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>738</v>
@@ -4493,19 +4493,19 @@
         <v>391234</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>379037</v>
+        <v>379447</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>401835</v>
+        <v>402182</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8432431339983846</v>
+        <v>0.8432431339983845</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8169543339741898</v>
+        <v>0.8178391717682838</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8660933803281555</v>
+        <v>0.8668399662026409</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1154</v>
@@ -4514,19 +4514,19 @@
         <v>675273</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>660448</v>
+        <v>658873</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>688333</v>
+        <v>688359</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.873263388328433</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8540926120180057</v>
+        <v>0.852055243047703</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8901533800230449</v>
+        <v>0.8901864810832067</v>
       </c>
     </row>
     <row r="11">
@@ -4618,19 +4618,19 @@
         <v>6450</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3218</v>
+        <v>3316</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11608</v>
+        <v>11638</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.009012187477957361</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.004495634133476078</v>
+        <v>0.004632718713763626</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0162184637504224</v>
+        <v>0.016260868638737</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>49</v>
@@ -4639,19 +4639,19 @@
         <v>26477</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19349</v>
+        <v>19868</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35203</v>
+        <v>35575</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02935809170338933</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02145485559425301</v>
+        <v>0.02202990503015813</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03903406894043372</v>
+        <v>0.03944697959905563</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>60</v>
@@ -4660,19 +4660,19 @@
         <v>32927</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>25024</v>
+        <v>25014</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>42456</v>
+        <v>42168</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02035570448122834</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01547007343790592</v>
+        <v>0.01546418074553443</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02624649810380608</v>
+        <v>0.02606842064230816</v>
       </c>
     </row>
     <row r="13">
@@ -4689,19 +4689,19 @@
         <v>23705</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16364</v>
+        <v>17249</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32954</v>
+        <v>32842</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03312003278339845</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02286327266785962</v>
+        <v>0.02409954844652784</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04604251085895248</v>
+        <v>0.04588686411674744</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>109</v>
@@ -4710,19 +4710,19 @@
         <v>55406</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45411</v>
+        <v>45943</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66699</v>
+        <v>66065</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06143555913192605</v>
+        <v>0.06143555913192603</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05035293093146317</v>
+        <v>0.05094281175773169</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07395754375961555</v>
+        <v>0.07325531334868214</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -4731,19 +4731,19 @@
         <v>79111</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66433</v>
+        <v>66502</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93084</v>
+        <v>92198</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04890687867789547</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04106966066622149</v>
+        <v>0.04111196856660391</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05754522946057868</v>
+        <v>0.05699786542446543</v>
       </c>
     </row>
     <row r="14">
@@ -4760,19 +4760,19 @@
         <v>685568</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>675703</v>
+        <v>675881</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>694051</v>
+        <v>693453</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9578677797386441</v>
+        <v>0.957867779738644</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.944084455620497</v>
+        <v>0.9443337702583834</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9697206503566596</v>
+        <v>0.9688851065615242</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1546</v>
@@ -4781,19 +4781,19 @@
         <v>819970</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>806338</v>
+        <v>807682</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>832908</v>
+        <v>832396</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9092063491646847</v>
+        <v>0.9092063491646845</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8940911863479796</v>
+        <v>0.8955818876625008</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9235524762499064</v>
+        <v>0.9229848070839656</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2524</v>
@@ -4802,19 +4802,19 @@
         <v>1505538</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1489183</v>
+        <v>1489710</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1520948</v>
+        <v>1519807</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9307374168408762</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9206268598655238</v>
+        <v>0.9209526191323734</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9402645463781414</v>
+        <v>0.9395589364033093</v>
       </c>
     </row>
     <row r="15">
